--- a/Scenario_Definition.xlsx
+++ b/Scenario_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Drones\Python\Scenarios\Scenario4 Location Way Points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85846E0E-4887-4453-A934-7AF2D926A67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25655FFD-6886-4091-A9AD-041A0379BF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="576" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="N3">
         <v>40</v>
